--- a/data/trans_orig/P16B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE4CBFDC-084E-43B7-84AA-27325388EEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A183E74-774E-4968-BF60-5AD5E61CF9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{655DDE3E-A3C5-45FB-BE01-EC9A3DD5CF5D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB810BA5-DC9C-4C2B-BC9E-BD9E8B1A1AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="133">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>97,85%</t>
   </si>
   <si>
-    <t>89,33%</t>
+    <t>86,74%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,10 +85,10 @@
     <t>97,23%</t>
   </si>
   <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>97,37%</t>
@@ -97,7 +97,7 @@
     <t>93,66%</t>
   </si>
   <si>
-    <t>99,28%</t>
+    <t>99,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,22 +109,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,67%</t>
+    <t>13,26%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>6,34%</t>
@@ -139,43 +139,43 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>74,08%</t>
+    <t>76,34%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>90,08%</t>
+    <t>89,15%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>25,92%</t>
+    <t>23,66%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>9,92%</t>
+    <t>10,85%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -205,49 +205,43 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>91,12%</t>
+    <t>90,65%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
+    <t>94,89%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>8,88%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>5,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -262,43 +256,37 @@
     <t>99,43%</t>
   </si>
   <si>
+    <t>99,55%</t>
+  </si>
+  <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
     <t>4,25%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
     <t>95,66%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>93,97%</t>
+    <t>93,87%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>95,31%</t>
+    <t>94,91%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -307,13 +295,13 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>6,03%</t>
+    <t>6,13%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>4,69%</t>
+    <t>5,09%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -340,10 +328,10 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>2,06%</t>
@@ -352,10 +340,10 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>Porcentaje de antidepresivos recetados en 2015 (Tasa respuesta: 4,51%)</t>
@@ -367,52 +355,46 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,44%</t>
+    <t>95,46%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>96,15%</t>
-  </si>
-  <si>
     <t>5,78%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,56%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>95,78%</t>
+    <t>96,64%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>96,51%</t>
+    <t>97,01%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>4,22%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>2,99%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -436,25 +418,25 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,64%</t>
+    <t>97,19%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>97,9%</t>
+    <t>98,16%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,1%</t>
+    <t>1,84%</t>
   </si>
 </sst>
 </file>
@@ -866,7 +848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2789F515-07DC-4824-A7B0-53752B413EEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1265C663-A3DE-4D6A-B589-9C58F18C6958}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1491,7 +1473,7 @@
         <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,13 +1488,13 @@
         <v>1863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1521,13 +1503,13 @@
         <v>5572</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1536,13 +1518,13 @@
         <v>7435</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1598,7 +1580,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E96EA1-A126-4E77-A761-330B6180735E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF52E42-DABE-42FA-A00D-DEBB7815DF9C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1634,7 +1616,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1744,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -1756,10 +1738,10 @@
         <v>189379</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1771,10 +1753,10 @@
         <v>238214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1798,7 +1780,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1807,13 +1789,13 @@
         <v>1087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1822,13 +1804,13 @@
         <v>1087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -1911,10 +1893,10 @@
         <v>95274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1926,10 +1908,10 @@
         <v>143179</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1953,7 +1935,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1962,13 +1944,13 @@
         <v>1176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1977,13 +1959,13 @@
         <v>1176</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2036,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2069,7 +2051,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2084,7 +2066,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2108,7 +2090,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2123,7 +2105,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2138,7 +2120,7 @@
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2191,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>30</v>
@@ -2221,10 +2203,10 @@
         <v>294341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2236,10 +2218,10 @@
         <v>398265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2263,7 +2245,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2272,13 +2254,13 @@
         <v>2264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2287,13 +2269,13 @@
         <v>2264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2331,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3528AA-645D-4857-85AE-BA7F063B6C3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF4265-BA73-4236-A402-2731C1AD110B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2385,7 +2367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2495,7 +2477,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -2507,10 +2489,10 @@
         <v>108766</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2522,10 +2504,10 @@
         <v>140609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2549,7 +2531,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2558,13 +2540,13 @@
         <v>985</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2573,13 +2555,13 @@
         <v>985</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,7 +2632,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -2662,10 +2644,10 @@
         <v>120412</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2677,10 +2659,10 @@
         <v>158625</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2704,7 +2686,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2713,13 +2695,13 @@
         <v>925</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2728,13 +2710,13 @@
         <v>925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,7 +2787,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2820,7 +2802,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2835,7 +2817,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2859,7 +2841,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2874,7 +2856,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2889,7 +2871,7 @@
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,10 +2954,10 @@
         <v>243720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2987,10 +2969,10 @@
         <v>316759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3014,7 +2996,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3023,13 +3005,13 @@
         <v>1909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3038,13 +3020,13 @@
         <v>1909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3082,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A183E74-774E-4968-BF60-5AD5E61CF9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F73193-A278-41DB-B917-45D710623AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB810BA5-DC9C-4C2B-BC9E-BD9E8B1A1AD2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF332B7D-5401-4764-95DB-F16B01A32ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="137">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>97,85%</t>
   </si>
   <si>
-    <t>86,74%</t>
+    <t>88,55%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>97,23%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,25 +109,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,26%</t>
+    <t>11,45%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,43 +139,43 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>76,34%</t>
+    <t>70,98%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>89,15%</t>
+    <t>90,44%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>23,66%</t>
+    <t>29,02%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>9,56%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -205,43 +205,49 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>90,65%</t>
+    <t>91,34%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>94,89%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>9,35%</t>
+    <t>8,66%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>5,11%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -256,10 +262,13 @@
     <t>99,43%</t>
   </si>
   <si>
+    <t>97,04%</t>
+  </si>
+  <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>97,7%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -268,10 +277,13 @@
     <t>0,57%</t>
   </si>
   <si>
+    <t>2,96%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -280,13 +292,13 @@
     <t>98,78%</t>
   </si>
   <si>
-    <t>93,87%</t>
+    <t>93,97%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>94,91%</t>
+    <t>95,95%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -295,13 +307,13 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>6,03%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>4,05%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -328,7 +340,7 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>98,2%</t>
@@ -340,13 +352,13 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>Porcentaje de antidepresivos recetados en 2015 (Tasa respuesta: 4,51%)</t>
+    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
   </si>
   <si>
     <t>94,22%</t>
@@ -355,10 +367,10 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>5,78%</t>
@@ -367,34 +379,34 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>96,64%</t>
+    <t>95,16%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>97,01%</t>
+    <t>97,05%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>4,84%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -418,25 +430,25 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,3%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>98,16%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,7%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,84%</t>
+    <t>2,16%</t>
   </si>
 </sst>
 </file>
@@ -848,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1265C663-A3DE-4D6A-B589-9C58F18C6958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED02E440-6025-4A6F-8838-0917EC1AFF5B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1473,7 +1485,7 @@
         <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,13 +1500,13 @@
         <v>1863</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1503,13 +1515,13 @@
         <v>5572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1518,13 +1530,13 @@
         <v>7435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,7 +1592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1599,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF52E42-DABE-42FA-A00D-DEBB7815DF9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BCB33C-03E6-4D03-B57B-FDB4A8E60381}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1616,7 +1628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1726,7 +1738,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -1738,10 +1750,10 @@
         <v>189379</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1753,10 +1765,10 @@
         <v>238214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1780,7 +1792,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -1789,13 +1801,13 @@
         <v>1087</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1804,13 +1816,13 @@
         <v>1087</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1893,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -1893,10 +1905,10 @@
         <v>95274</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1908,10 +1920,10 @@
         <v>143179</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -1935,7 +1947,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1944,13 +1956,13 @@
         <v>1176</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1959,13 +1971,13 @@
         <v>1176</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,7 +2048,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2051,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2066,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2090,7 +2102,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2105,7 +2117,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2120,7 +2132,7 @@
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,7 +2203,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>30</v>
@@ -2203,10 +2215,10 @@
         <v>294341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2218,10 +2230,10 @@
         <v>398265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2245,7 +2257,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2254,13 +2266,13 @@
         <v>2264</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2269,13 +2281,13 @@
         <v>2264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,7 +2343,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EF4265-BA73-4236-A402-2731C1AD110B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A213B6B6-2000-4902-A122-0972E45A631C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2367,7 +2379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2477,7 +2489,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -2489,10 +2501,10 @@
         <v>108766</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2504,10 +2516,10 @@
         <v>140609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2531,7 +2543,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2540,13 +2552,13 @@
         <v>985</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2555,13 +2567,13 @@
         <v>985</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,7 +2644,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -2644,10 +2656,10 @@
         <v>120412</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2659,10 +2671,10 @@
         <v>158625</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2686,7 +2698,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2695,13 +2707,13 @@
         <v>925</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2710,13 +2722,13 @@
         <v>925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2799,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2802,7 +2814,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2817,7 +2829,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2841,7 +2853,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2856,7 +2868,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2871,7 +2883,7 @@
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,10 +2966,10 @@
         <v>243720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2969,10 +2981,10 @@
         <v>316759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2996,7 +3008,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3005,13 +3017,13 @@
         <v>1909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3020,13 +3032,13 @@
         <v>1909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,7 +3094,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F73193-A278-41DB-B917-45D710623AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBAD81A6-8174-48AC-A7B2-2724D01BBC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF332B7D-5401-4764-95DB-F16B01A32ED0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB106F55-6B1F-4264-AAB6-D21E95D44BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="139">
   <si>
     <t>Porcentaje de antidepresivos recetados en 2007 (Tasa respuesta: 4,25%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>88,55%</t>
+    <t>89,33%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,7 +85,7 @@
     <t>97,23%</t>
   </si>
   <si>
-    <t>92,6%</t>
+    <t>92,48%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -94,319 +94,325 @@
     <t>97,37%</t>
   </si>
   <si>
-    <t>93,63%</t>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2012 (Tasa respuesta: 5,75%)</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>Porcentaje de antidepresivos recetados en 2016 (Tasa respuesta: 4,51%)</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>95,16%</t>
+    <t>95,78%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>97,05%</t>
+    <t>96,51%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>4,84%</t>
+    <t>4,22%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -430,25 +436,25 @@
     <t>99,22%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>97,64%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>97,84%</t>
+    <t>97,9%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,16%</t>
+    <t>2,1%</t>
   </si>
 </sst>
 </file>
@@ -860,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED02E440-6025-4A6F-8838-0917EC1AFF5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F7E1-28D2-4416-A9D9-A0D6241AD30B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1611,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BCB33C-03E6-4D03-B57B-FDB4A8E60381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127CCE64-E8F4-4678-A251-294D3509C742}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2362,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A213B6B6-2000-4902-A122-0972E45A631C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FB1CA4-CA8D-4C72-A1A8-570952424BE6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2516,10 +2522,10 @@
         <v>140609</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2543,7 +2549,7 @@
         <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2552,13 +2558,13 @@
         <v>985</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2567,13 +2573,13 @@
         <v>985</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,7 +2650,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>30</v>
@@ -2659,7 +2665,7 @@
         <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2671,10 +2677,10 @@
         <v>158625</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2698,7 +2704,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2713,7 +2719,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2722,13 +2728,13 @@
         <v>925</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,7 +2805,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2814,7 +2820,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2829,7 +2835,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>30</v>
@@ -2853,7 +2859,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2868,7 +2874,7 @@
         <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2883,7 +2889,7 @@
         <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2972,10 @@
         <v>243720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2981,10 +2987,10 @@
         <v>316759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3017,13 +3023,13 @@
         <v>1909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3032,13 +3038,13 @@
         <v>1909</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBAD81A6-8174-48AC-A7B2-2724D01BBC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55FFD581-FE5C-4487-9195-121C09E7F9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB106F55-6B1F-4264-AAB6-D21E95D44BCC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4268E16B-8505-446A-A650-278CC918803D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323F7E1-28D2-4416-A9D9-A0D6241AD30B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BD4CCD-870E-42E4-B2CB-AC42A00B28F4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1617,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127CCE64-E8F4-4678-A251-294D3509C742}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8528E881-853C-4E02-A61B-CE1E04002E4B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2368,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FB1CA4-CA8D-4C72-A1A8-570952424BE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793CA6A7-F48B-4476-9685-B7E803C1AA62}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
